--- a/playlist_per_work/krul001pamp02.xlsx
+++ b/playlist_per_work/krul001pamp02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H247"/>
+  <dimension ref="A1:H248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,24 +478,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#pagie</t>
+          <t>#leon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Pagie</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Leon</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -504,24 +500,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#lau</t>
+          <t>#celesti</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>lau</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Celesti</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -530,24 +522,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#clind</t>
+          <t>#alph</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Clind</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Alph</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -556,7 +544,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -569,11 +557,7 @@
           <t>Wie lichtelijck geloofd word lichtelijk bedrogen</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -582,24 +566,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>#raedsh</t>
+          <t>#elige-kruyden,-tierige-boomen,</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Raedsh</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Elige kruyden, tierige boomen,</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -608,24 +588,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>#castern</t>
+          <t>#kol</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Castern</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Kol</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -634,24 +610,20 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>#apollo</t>
+          <t>#marg</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Apollo</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Marg</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -660,24 +632,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>#rogier</t>
+          <t>#koning</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Rogier</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>KONING</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -686,24 +654,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#schoon-herderinne,</t>
+          <t>#rog</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Schoon Herderinne,</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Rog</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -712,24 +676,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>#ach!-ach!-ik-krijg-mijn-wil</t>
+          <t>#iulian</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ach! ach! ik krijg mijn wil</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Iulian</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -738,24 +698,20 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>#cassand</t>
+          <t>#cleand</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cassand</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Cleand</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -764,24 +720,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>#argire</t>
+          <t>#dian</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Argire</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Dian</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -790,24 +742,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>#philida</t>
+          <t>#stem</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PHILIDA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Stem</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -816,24 +764,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>#helena</t>
+          <t>#elizab</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Helena</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Elizab</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -842,24 +786,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>#alph</t>
+          <t>#clau</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Alph</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Clau</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -868,24 +808,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>#claudi</t>
+          <t>#dianir</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Claudi</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Dianir</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -894,24 +830,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>#ferdin</t>
+          <t>#mercu</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ferdin</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Mercu</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -920,24 +852,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>#ama</t>
+          <t>#cupido</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ama</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Cupido</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -946,24 +874,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>#hertoog</t>
+          <t>#scherp</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Hertoog</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Scherp</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -972,24 +896,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>#elisab</t>
+          <t>#ranic</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Elisab</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Ranic</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -998,24 +918,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>#trouw</t>
+          <t>#dianier</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Trouw</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Dianier</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1024,24 +940,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>#bellinde</t>
+          <t>#faust</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Bellinde</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Faust</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1050,24 +962,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>#rodrig</t>
+          <t>#oro</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Rodrig</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Oro</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1076,24 +984,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>#hier-by-de-linden,</t>
+          <t>#oude-v</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Hier by de linden,</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Oude-v</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1102,24 +1006,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>#thirsus</t>
+          <t>#calista,</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Thirsus</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Calista,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1128,24 +1028,20 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>#constan</t>
+          <t>#toveres</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Constan</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Toveres</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
@@ -1154,24 +1050,20 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>#eremijt</t>
+          <t>#celestijn</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Eremijt</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Celestijn</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
@@ -1180,24 +1072,20 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>#ergunt</t>
+          <t>#tyt</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ergunt</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Tyt</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1206,24 +1094,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>#floriaen</t>
+          <t>#wees-ij</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>FLORIAEN</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Wees-ij</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1232,24 +1116,20 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>#raniclis-zingt</t>
+          <t>#rijm</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>RANICLIS ZINGT</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Rijm</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1258,24 +1138,20 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>#vvaer-zal-ik-vinden</t>
+          <t>#diana</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>VVaer zal ik vinden</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Diana</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
@@ -1284,24 +1160,20 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>#ere</t>
+          <t>#thirs</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ere</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Thirs</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
@@ -1310,24 +1182,20 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>#dianier</t>
+          <t>#trouw</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Dianier</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Trouw</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -1336,24 +1204,20 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>#silvester</t>
+          <t>#flori</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Silvester</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Flori</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -1362,24 +1226,20 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>#verance</t>
+          <t>#cant</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Verance</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Cant</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
@@ -1388,24 +1248,20 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>#celesti</t>
+          <t>#tov</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Celesti</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Tov</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
@@ -1414,24 +1270,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>#diana</t>
+          <t>#pallas</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Diana</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Pallas</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
@@ -1440,24 +1292,20 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>#amaril</t>
+          <t>#helena</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Amaril</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Helena</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
@@ -1466,24 +1314,20 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>#laura</t>
+          <t>#grucel</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Laura</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Grucel</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -1492,24 +1336,20 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>#bell</t>
+          <t>#herderi</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Bell</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Herderi</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -1518,24 +1358,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>#theodoor</t>
+          <t>#florentina</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>THEODOOR</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>FLORENTINA</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -1544,24 +1380,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>#rethor</t>
+          <t>#apol</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Rethor</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Apol</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
@@ -1570,24 +1402,20 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>#florentina</t>
+          <t>#bell</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>FLORENTINA</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Bell</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
@@ -1596,24 +1424,20 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>#hoveling</t>
+          <t>#gru</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>HOVELING</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Gru</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
@@ -1622,24 +1446,20 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>#lucia</t>
+          <t>#hert</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Lucia</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Hert</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -1648,24 +1468,20 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>#mercu</t>
+          <t>#buyg,-zuye-winden,</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Mercu</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Buyg, zuye winden,</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
@@ -1674,24 +1490,20 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>#grucel</t>
+          <t>#lerind</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Grucel</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Lerind</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
@@ -1700,24 +1512,20 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>#cupido</t>
+          <t>#helena</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cupido</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>HELENA</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
@@ -1726,24 +1534,20 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>#leon</t>
+          <t>#claud</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Leon</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Claud</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -1752,24 +1556,20 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>#ranic</t>
+          <t>#amar</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Ranic</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Amar</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
@@ -1778,24 +1578,20 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>#cleant</t>
+          <t>#rosilion</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Cleant</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Rosilion</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -1804,24 +1600,20 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>#coridon</t>
+          <t>#rhodri</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Coridon</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Rhodri</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
@@ -1830,24 +1622,20 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>#on-van-mijn-zinne</t>
+          <t>#amarillis</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>On van mijn zinne</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>AMARILLIS</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
@@ -1856,24 +1644,20 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>#stemme</t>
+          <t>#iul</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Stemme</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Iul</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
@@ -1882,24 +1666,20 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>#herder</t>
+          <t>#ach!-ach!-ik-krijg-mijn-wil</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Herder</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Ach! ach! ik krijg mijn wil</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
@@ -1908,24 +1688,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>#cecilia</t>
+          <t>#gabrin</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CECILIA</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Gabrin</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
@@ -1934,24 +1710,20 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>#raniclis</t>
+          <t>#rosani</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>RANICLIS</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Rosani</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
@@ -1960,24 +1732,20 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>#iuliana</t>
+          <t>#ferd</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Iuliana</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Ferd</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
@@ -1986,24 +1754,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>#marg</t>
+          <t>#allerd</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Marg</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Allerd</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
@@ -2012,24 +1776,20 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>#rijmer</t>
+          <t>#rosil</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Rijmer</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Rosil</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
@@ -2038,24 +1798,20 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>#oronte</t>
+          <t>#roz</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Oronte</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Roz</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
@@ -2064,24 +1820,20 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>#koning</t>
+          <t>#nydig</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>KONING</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Nydig</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
@@ -2090,24 +1842,20 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>#florent</t>
+          <t>#alcip</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Florent</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>ALCIP</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2116,24 +1864,20 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>#cephise</t>
+          <t>#rethor</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Cephise</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Rethor</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
@@ -2142,24 +1886,20 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>#heracl</t>
+          <t>#philida-zingt</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Heracl</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>PHILIDA ZINGT</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2168,24 +1908,20 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>#rozem</t>
+          <t>#cec</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Rozem</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Cec</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
@@ -2194,24 +1930,20 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>#ariont</t>
+          <t>#galat</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Ariont</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Galat</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
@@ -2220,24 +1952,20 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>#koning</t>
+          <t>#celestia</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Koning</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Celestia</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
@@ -2246,24 +1974,20 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>#buyg,-zuye-winden,</t>
+          <t>#stemme</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Buyg, zuye winden,</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Stemme</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2272,24 +1996,20 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>#elige-kruyden,-tierige-boomen,</t>
+          <t>#verance,</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Elige kruyden, tierige boomen,</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Verance,</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2298,24 +2018,20 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>#wraek</t>
+          <t>#wees-j</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Wraek</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Wees-j</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2324,24 +2040,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>#nydig</t>
+          <t>#marc</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Nydig</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Marc</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
@@ -2350,24 +2062,20 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>#gustav</t>
+          <t>#cass</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Gustav</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Cass</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
@@ -2376,24 +2084,20 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>#gabrin</t>
+          <t>#diana</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Gabrin</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>DIANA</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
@@ -2402,24 +2106,20 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>#liefdbl</t>
+          <t>#clindor</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Liefdbl</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Clindor</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
@@ -2428,24 +2128,20 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>#coridon</t>
+          <t>#faustin</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CORIDON</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Faustin</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
@@ -2454,24 +2150,20 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>#cypria</t>
+          <t>#oude-m</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Cypria</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Oude-m</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
@@ -2480,24 +2172,20 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>#amarillis</t>
+          <t>#eremijt</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>AMARILLIS</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Eremijt</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
@@ -2506,24 +2194,20 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>#recht</t>
+          <t>#canti</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Recht</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Canti</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
@@ -2532,24 +2216,20 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>#waer-schuyld-gy-u,-mijn-waerde-herder?</t>
+          <t>#cecil</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Waer schuyld gy u, mijn waerde Herder?</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Cecil</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
@@ -2558,24 +2238,20 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>#den-hoveling-beklaegd-zich-zeer-overden-tijd,-die-hy-in-'t-hof-heeft-door-gebracht</t>
+          <t>#konin</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Den Hoveling beklaegd zich zeer overden tijd, die hy in 't Hof heeft door gebracht</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Konin</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
@@ -2584,24 +2260,20 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>#allerd</t>
+          <t>#schild</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Allerd</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Schild</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
@@ -2610,24 +2282,20 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>#piman</t>
+          <t>#ceph</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Piman</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Ceph</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
@@ -2636,24 +2304,20 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>#schild</t>
+          <t>#karel</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Schild</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Karel</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
@@ -2662,24 +2326,20 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>#cass</t>
+          <t>#piman</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Cass</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Piman</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
@@ -2688,24 +2348,20 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>#flo</t>
+          <t>#raedsh</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Flo</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Raedsh</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
@@ -2714,24 +2370,20 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>#faustin</t>
+          <t>#theodoor</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Faustin</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>THEODOOR</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
@@ -2740,24 +2392,20 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>#scherp</t>
+          <t>#rozem</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Scherp</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Rozem</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
@@ -2766,24 +2414,20 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>#florentina</t>
+          <t>#florent,</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Florentina</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Florent,</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
@@ -2792,24 +2436,20 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>#philida-zingt</t>
+          <t>#theodor</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>PHILIDA ZINGT</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Theodor</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
@@ -2818,24 +2458,20 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>#philand</t>
+          <t>#vvaer-zal-ik-vinden</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Philand</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>VVaer zal ik vinden</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
@@ -2844,24 +2480,20 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>#oud-m</t>
+          <t>#tover</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Oud-m</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Tover</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
@@ -2870,24 +2502,20 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>#cecilia</t>
+          <t>#wraek</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Cecilia</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Wraek</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
@@ -2896,24 +2524,20 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>#tyt,</t>
+          <t>#ere</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Tyt,</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Ere</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
@@ -2922,24 +2546,20 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>#rozemond</t>
+          <t>#rosili</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ROZEMOND</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Rosili</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
@@ -2948,24 +2568,20 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>#kol</t>
+          <t>#hele</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Kol</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Hele</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
@@ -2974,24 +2590,20 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>#rosiljon</t>
+          <t>#coning</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Rosiljon</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Coning</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
@@ -3000,24 +2612,20 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>#emmer</t>
+          <t>#corid</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Emmer</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Corid</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
@@ -3026,24 +2634,20 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>#canti</t>
+          <t>#veran</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Canti</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Veran</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
@@ -3052,24 +2656,20 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>#diana</t>
+          <t>#tyt,</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>DIANA</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Tyt,</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
@@ -3078,24 +2678,20 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>#rosil</t>
+          <t>#lau</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Rosil</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>lau</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
@@ -3104,24 +2700,20 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>#karel</t>
+          <t>#raniclis-zingt</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Karel</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>RANICLIS ZINGT</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3130,24 +2722,20 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>#celestina</t>
+          <t>#phil</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>CELESTINA</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Phil</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
@@ -3156,24 +2744,20 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>#helena</t>
+          <t>#iuli</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>HELENA</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Iuli</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
@@ -3182,24 +2766,20 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>#rosani</t>
+          <t>#heracl</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Rosani</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Heracl</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
@@ -3208,24 +2788,20 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>#alphons</t>
+          <t>#celiod</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Alphons</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Celiod</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -3234,24 +2810,20 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>#eliz</t>
+          <t>#aller</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Eliz</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Aller</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
@@ -3260,24 +2832,20 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>#musen</t>
+          <t>#lerinde</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Musen</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Lerinde</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
@@ -3286,24 +2854,20 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>#cec</t>
+          <t>#den-hoveling-beklaegd-zich-zeer-overden-tijd,-die-hy-in-'t-hof-heeft-door-gebracht</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Cec</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Den Hoveling beklaegd zich zeer overden tijd, die hy in 't Hof heeft door gebracht</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
@@ -3312,24 +2876,20 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>#lerinde</t>
+          <t>#philand</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Lerinde</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Philand</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
@@ -3338,24 +2898,20 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>#toveres</t>
+          <t>#verance</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Toveres</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Verance</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
@@ -3364,24 +2920,20 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>#musica</t>
+          <t>#rosan</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Musica</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Rosan</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
@@ -3390,24 +2942,20 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>#elizabet</t>
+          <t>#philander</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ELIZABET</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>PHILANDER</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
@@ -3416,24 +2964,20 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>#hert</t>
+          <t>#d</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Hert</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
@@ -3442,24 +2986,20 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>#alcip</t>
+          <t>#kon</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>ALCIP</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Kon</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -3468,24 +3008,20 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>#iuli</t>
+          <t>#cleant</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Iuli</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Cleant</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -3494,24 +3030,20 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>#theodor</t>
+          <t>#thirsus</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Theodor</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Thirsus</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
@@ -3520,24 +3052,20 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>#wees-j</t>
+          <t>#rozani</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Wees-j</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Rozani</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
@@ -3546,24 +3074,20 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>#pluto</t>
+          <t>#laura</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Pluto</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Laura</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
@@ -3572,24 +3096,20 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>#philida</t>
+          <t>#cap</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Philida</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Cap</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
@@ -3598,24 +3118,20 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>#philander</t>
+          <t>#schoon-herderinne,</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>PHILANDER</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Schoon Herderinne,</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
@@ -3624,24 +3140,20 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>#alcip</t>
+          <t>#clind</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Alcip</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Clind</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
@@ -3650,24 +3162,20 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>#floria</t>
+          <t>#juliana</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Floria</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Juliana</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
@@ -3676,24 +3184,20 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>#binnen,</t>
+          <t>#rech</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Binnen,</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Rech</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
@@ -3702,24 +3206,20 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>#celion</t>
+          <t>#wees-ji</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Celion</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Wees-ji</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
@@ -3728,24 +3228,20 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>#hovel</t>
+          <t>#gabr</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Hovel</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Gabr</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
@@ -3754,24 +3250,20 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>#calista</t>
+          <t>#philid</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Calista</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Philid</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
@@ -3780,24 +3272,20 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>#galat</t>
+          <t>#gustav</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Galat</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Gustav</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
@@ -3806,24 +3294,20 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>#phil</t>
+          <t>#rozemond</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Phil</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>ROZEMOND</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
@@ -3832,24 +3316,20 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>#august</t>
+          <t>#pluto</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>August</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Pluto</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
@@ -3858,24 +3338,20 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>#pallas</t>
+          <t>#alcip</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Pallas</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
+          <t>Alcip</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
@@ -3884,17 +3360,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>#rijmer</t>
+          <t>#oron</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Rijm</t>
+          <t>Oron</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
@@ -3906,17 +3382,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>#oud-m</t>
+          <t>#lau</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Oude-v</t>
+          <t>Lau</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
@@ -3928,17 +3404,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>#wees-j</t>
+          <t>#rodr</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Wees-ij</t>
+          <t>Rodr</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
@@ -3950,7 +3426,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3960,7 +3436,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Oude-m</t>
+          <t>Oud-m</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
@@ -3972,17 +3448,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>#wees-j</t>
+          <t>#heydin</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Wees-ji</t>
+          <t>Heydin</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
@@ -3994,17 +3470,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>#laura</t>
+          <t>#rozem,</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Lau</t>
+          <t>Rozem,</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
@@ -4016,17 +3492,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>#lau</t>
+          <t>#kar</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Laur</t>
+          <t>Kar</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
@@ -4038,17 +3514,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>#flo</t>
+          <t>#waer-schuyld-gy-u,-mijn-waerde-herder?</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Flor</t>
+          <t>Waer schuyld gy u, mijn waerde Herder?</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
@@ -4060,17 +3536,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>#kol</t>
+          <t>#ergun</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Rod</t>
+          <t>Ergun</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
@@ -4082,17 +3558,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>#rodrig</t>
+          <t>#amaril</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Rodr</t>
+          <t>Amaril</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
@@ -4104,17 +3580,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>#cecilia</t>
+          <t>#castern</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Cecil</t>
+          <t>Castern</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
@@ -4126,17 +3602,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>#florent</t>
+          <t>#raniclis</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Florent,</t>
+          <t>RANICLIS</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
@@ -4148,17 +3624,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>#diana</t>
+          <t>#rosiljon</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Dia</t>
+          <t>Rosiljon</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
@@ -4170,17 +3646,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>#leon</t>
+          <t>#cordon</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Kon</t>
+          <t>Cordon</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
@@ -4192,17 +3668,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>#koning</t>
+          <t>#elizabeth</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Konin</t>
+          <t>ELIZABETH</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
@@ -4214,17 +3690,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>#flo</t>
+          <t>#hel</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Flore</t>
+          <t>Hel</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
@@ -4236,17 +3712,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>#allerd</t>
+          <t>#cup</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Aller</t>
+          <t>Cup</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
@@ -4258,17 +3734,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>#cec</t>
+          <t>#diena</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Rech</t>
+          <t>Diena</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
@@ -4280,17 +3756,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>#liefdbl</t>
+          <t>#celio</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Liefde</t>
+          <t>Celio</t>
         </is>
       </c>
       <c r="D151" t="inlineStr"/>
@@ -4302,17 +3778,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>#celesti</t>
+          <t>#floria</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Celestia</t>
+          <t>Floria</t>
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
@@ -4324,17 +3800,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>#cec</t>
+          <t>#liefdbl</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Cel</t>
+          <t>Liefdbl</t>
         </is>
       </c>
       <c r="D153" t="inlineStr"/>
@@ -4346,17 +3822,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>#cec</t>
+          <t>#amasis</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Cyp</t>
+          <t>Amasis</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
@@ -4368,17 +3844,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>#lau</t>
+          <t>#cyp</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Ran</t>
+          <t>Cyp</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
@@ -4390,17 +3866,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>#kol</t>
+          <t>#calista</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Ros</t>
+          <t>Calista</t>
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
@@ -4412,17 +3888,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>#kol</t>
+          <t>#argeri</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Roz</t>
+          <t>Argeri</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
@@ -4434,17 +3910,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>#ranic</t>
+          <t>#oronte</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Ranic,</t>
+          <t>Oronte</t>
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
@@ -4456,17 +3932,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>#cec</t>
+          <t>#con</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Cap</t>
+          <t>Con</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
@@ -4478,17 +3954,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>#cec</t>
+          <t>#clor</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Cup</t>
+          <t>Clor</t>
         </is>
       </c>
       <c r="D160" t="inlineStr"/>
@@ -4500,17 +3976,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>#rozem</t>
+          <t>#binnen,</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Rozem,</t>
+          <t>Binnen,</t>
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
@@ -4522,17 +3998,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>#floria</t>
+          <t>#piman,</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Cloris</t>
+          <t>Piman,</t>
         </is>
       </c>
       <c r="D162" t="inlineStr"/>
@@ -4544,17 +4020,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>#flo</t>
+          <t>#ama</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Clor</t>
+          <t>Ama</t>
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
@@ -4566,17 +4042,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>#philand</t>
+          <t>#silvester</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Philan</t>
+          <t>Silvester</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
@@ -4588,17 +4064,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>#cec</t>
+          <t>#marcel</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Ler</t>
+          <t>Marcel</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
@@ -4610,17 +4086,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>#philida</t>
+          <t>#argire</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Philid</t>
+          <t>Argire</t>
         </is>
       </c>
       <c r="D166" t="inlineStr"/>
@@ -4632,17 +4108,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>#lerinde</t>
+          <t>#eliz</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Lerind</t>
+          <t>Eliz</t>
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
@@ -4654,17 +4130,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>#thirsus</t>
+          <t>#lucia</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Thirs</t>
+          <t>Lucia</t>
         </is>
       </c>
       <c r="D168" t="inlineStr"/>
@@ -4676,17 +4152,17 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>#eliz</t>
+          <t>#recht</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Elizab</t>
+          <t>Recht</t>
         </is>
       </c>
       <c r="D169" t="inlineStr"/>
@@ -4698,17 +4174,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>#helena</t>
+          <t>#musyk</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Helen</t>
+          <t>Musyk</t>
         </is>
       </c>
       <c r="D170" t="inlineStr"/>
@@ -4720,17 +4196,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>#helena</t>
+          <t>#floriaen</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Hele</t>
+          <t>FLORIAEN</t>
         </is>
       </c>
       <c r="D171" t="inlineStr"/>
@@ -4742,17 +4218,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>#cass</t>
+          <t>#cephis</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Cassan</t>
+          <t>Cephis</t>
         </is>
       </c>
       <c r="D172" t="inlineStr"/>
@@ -4764,17 +4240,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>#toveres</t>
+          <t>#kroning</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Tover</t>
+          <t>Kroning</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
@@ -4786,17 +4262,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>#kol</t>
+          <t>#cecilia</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Tov</t>
+          <t>CECILIA</t>
         </is>
       </c>
       <c r="D174" t="inlineStr"/>
@@ -4808,17 +4284,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>#karel</t>
+          <t>#herder</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Kar</t>
+          <t>Herder</t>
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
@@ -4830,17 +4306,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>#kol</t>
+          <t>#philida</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Rog</t>
+          <t>Philida</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
@@ -4852,17 +4328,17 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>#cec</t>
+          <t>#pimon</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Hel</t>
+          <t>Pimon</t>
         </is>
       </c>
       <c r="D177" t="inlineStr"/>
@@ -4874,17 +4350,17 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>#elizabet</t>
+          <t>#philida</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>ELIZABETH</t>
+          <t>PHILIDA</t>
         </is>
       </c>
       <c r="D178" t="inlineStr"/>
@@ -4896,17 +4372,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>#rogier</t>
+          <t>#amas</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Rogier,</t>
+          <t>Amas</t>
         </is>
       </c>
       <c r="D179" t="inlineStr"/>
@@ -4918,17 +4394,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>#clind</t>
+          <t>#cloris</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Clindor</t>
+          <t>Cloris</t>
         </is>
       </c>
       <c r="D180" t="inlineStr"/>
@@ -4940,17 +4416,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>#clind</t>
+          <t>#celestina</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Cleand</t>
+          <t>CELESTINA</t>
         </is>
       </c>
       <c r="D181" t="inlineStr"/>
@@ -4962,17 +4438,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>#gabrin</t>
+          <t>#rod</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Gabr</t>
+          <t>Rod</t>
         </is>
       </c>
       <c r="D182" t="inlineStr"/>
@@ -4984,17 +4460,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>#lucia</t>
+          <t>#helen</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Luci</t>
+          <t>Helen</t>
         </is>
       </c>
       <c r="D183" t="inlineStr"/>
@@ -5006,17 +4482,17 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>#lucia</t>
+          <t>#rogier,</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Luc</t>
+          <t>Rogier,</t>
         </is>
       </c>
       <c r="D184" t="inlineStr"/>
@@ -5028,17 +4504,17 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>#wraek</t>
+          <t>#luci</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Wraek,</t>
+          <t>Luci</t>
         </is>
       </c>
       <c r="D185" t="inlineStr"/>
@@ -5050,17 +4526,17 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>#karel</t>
+          <t>#koning</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Marcel</t>
+          <t>Koning</t>
         </is>
       </c>
       <c r="D186" t="inlineStr"/>
@@ -5072,17 +4548,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>#mercu</t>
+          <t>#luc</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Marc</t>
+          <t>Luc</t>
         </is>
       </c>
       <c r="D187" t="inlineStr"/>
@@ -5094,17 +4570,17 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>#amaril</t>
+          <t>#musica</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Amasis</t>
+          <t>Musica</t>
         </is>
       </c>
       <c r="D188" t="inlineStr"/>
@@ -5116,17 +4592,17 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>#rodrig</t>
+          <t>#const</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Rhodri</t>
+          <t>Const</t>
         </is>
       </c>
       <c r="D189" t="inlineStr"/>
@@ -5138,17 +4614,17 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>#piman</t>
+          <t>#florent</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Pieman</t>
+          <t>Florent</t>
         </is>
       </c>
       <c r="D190" t="inlineStr"/>
@@ -5160,12 +4636,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>#diana</t>
+          <t>#dien</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -5182,17 +4658,17 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>#ama</t>
+          <t>#ranic,</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Amas</t>
+          <t>Ranic,</t>
         </is>
       </c>
       <c r="D192" t="inlineStr"/>
@@ -5204,17 +4680,17 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>#piman</t>
+          <t>#rijmer</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Pimon</t>
+          <t>Rijmer</t>
         </is>
       </c>
       <c r="D193" t="inlineStr"/>
@@ -5226,17 +4702,17 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>#piman</t>
+          <t>#bellinde</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Piman,</t>
+          <t>Bellinde</t>
         </is>
       </c>
       <c r="D194" t="inlineStr"/>
@@ -5248,17 +4724,17 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>#ama</t>
+          <t>#claudi</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Amar</t>
+          <t>Claudi</t>
         </is>
       </c>
       <c r="D195" t="inlineStr"/>
@@ -5270,17 +4746,17 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>#musen</t>
+          <t>#hier-by-de-linden,</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Music</t>
+          <t>Hier by de linden,</t>
         </is>
       </c>
       <c r="D196" t="inlineStr"/>
@@ -5292,17 +4768,17 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>#lau</t>
+          <t>#elisab</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Gru</t>
+          <t>Elisab</t>
         </is>
       </c>
       <c r="D197" t="inlineStr"/>
@@ -5314,17 +4790,17 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>#coridon</t>
+          <t>#august</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Cordon</t>
+          <t>August</t>
         </is>
       </c>
       <c r="D198" t="inlineStr"/>
@@ -5336,17 +4812,17 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>#kol</t>
+          <t>#emmer</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Cor</t>
+          <t>Emmer</t>
         </is>
       </c>
       <c r="D199" t="inlineStr"/>
@@ -5358,17 +4834,17 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>#coridon</t>
+          <t>#on-van-mijn-zinne</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Corid</t>
+          <t>On van mijn zinne</t>
         </is>
       </c>
       <c r="D200" t="inlineStr"/>
@@ -5380,17 +4856,17 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>#iuliana</t>
+          <t>#cypria</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Juliana</t>
+          <t>Cypria</t>
         </is>
       </c>
       <c r="D201" t="inlineStr"/>
@@ -5402,17 +4878,17 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>#kol</t>
+          <t>#iuliana</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Iul</t>
+          <t>Iuliana</t>
         </is>
       </c>
       <c r="D202" t="inlineStr"/>
@@ -5424,17 +4900,17 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>#lau</t>
+          <t>#celiod,</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Claud</t>
+          <t>Celiod,</t>
         </is>
       </c>
       <c r="D203" t="inlineStr"/>
@@ -5446,17 +4922,17 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>#musen</t>
+          <t>#ferdin</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Musyk</t>
+          <t>Ferdin</t>
         </is>
       </c>
       <c r="D204" t="inlineStr"/>
@@ -5468,17 +4944,17 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>#iuliana</t>
+          <t>#ler</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Iulian</t>
+          <t>Ler</t>
         </is>
       </c>
       <c r="D205" t="inlineStr"/>
@@ -5490,17 +4966,17 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>#apollo</t>
+          <t>#flor</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Apolon</t>
+          <t>Flor</t>
         </is>
       </c>
       <c r="D206" t="inlineStr"/>
@@ -5512,17 +4988,17 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>#lau</t>
+          <t>#cassand</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Clau</t>
+          <t>Cassand</t>
         </is>
       </c>
       <c r="D207" t="inlineStr"/>
@@ -5534,17 +5010,17 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>#apollo</t>
+          <t>#florentina</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Apol</t>
+          <t>Florentina</t>
         </is>
       </c>
       <c r="D208" t="inlineStr"/>
@@ -5556,17 +5032,17 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>#faustin</t>
+          <t>#music</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Faust</t>
+          <t>Music</t>
         </is>
       </c>
       <c r="D209" t="inlineStr"/>
@@ -5578,17 +5054,17 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>#constan</t>
+          <t>#theod</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Const</t>
+          <t>Theod</t>
         </is>
       </c>
       <c r="D210" t="inlineStr"/>
@@ -5600,17 +5076,17 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>#canti</t>
+          <t>#calist</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Cantisa</t>
+          <t>Calist</t>
         </is>
       </c>
       <c r="D211" t="inlineStr"/>
@@ -5622,17 +5098,17 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>#cleant</t>
+          <t>#ariont</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Cant</t>
+          <t>Ariont</t>
         </is>
       </c>
       <c r="D212" t="inlineStr"/>
@@ -5644,17 +5120,17 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>#calista</t>
+          <t>#alphons</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Calist</t>
+          <t>Alphons</t>
         </is>
       </c>
       <c r="D213" t="inlineStr"/>
@@ -5666,17 +5142,17 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>#canti</t>
+          <t>#ros</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Cantis</t>
+          <t>Ros</t>
         </is>
       </c>
       <c r="D214" t="inlineStr"/>
@@ -5688,17 +5164,17 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>#calista</t>
+          <t>#elizabet</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Calista,</t>
+          <t>ELIZABET</t>
         </is>
       </c>
       <c r="D215" t="inlineStr"/>
@@ -5710,17 +5186,17 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>#ferdin</t>
+          <t>#celion</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Ferd</t>
+          <t>Celion</t>
         </is>
       </c>
       <c r="D216" t="inlineStr"/>
@@ -5732,17 +5208,17 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>#diana</t>
+          <t>#apolon</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Diena</t>
+          <t>Apolon</t>
         </is>
       </c>
       <c r="D217" t="inlineStr"/>
@@ -5754,17 +5230,17 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>#ferdin</t>
+          <t>#cantis</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Heydin</t>
+          <t>Cantis</t>
         </is>
       </c>
       <c r="D218" t="inlineStr"/>
@@ -5776,17 +5252,17 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>#dianier</t>
+          <t>#hovel</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Dianir</t>
+          <t>Hovel</t>
         </is>
       </c>
       <c r="D219" t="inlineStr"/>
@@ -5798,17 +5274,17 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>#theodor</t>
+          <t>#pagie</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Theod</t>
+          <t>Pagie</t>
         </is>
       </c>
       <c r="D220" t="inlineStr"/>
@@ -5820,17 +5296,17 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>#diana</t>
+          <t>#rogier</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Dian</t>
+          <t>Rogier</t>
         </is>
       </c>
       <c r="D221" t="inlineStr"/>
@@ -5842,17 +5318,17 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>#celesti</t>
+          <t>#flore</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Celestijn</t>
+          <t>Flore</t>
         </is>
       </c>
       <c r="D222" t="inlineStr"/>
@@ -5864,17 +5340,17 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>#diana</t>
+          <t>#dia</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>DIANIRA</t>
+          <t>Dia</t>
         </is>
       </c>
       <c r="D223" t="inlineStr"/>
@@ -5886,17 +5362,17 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>#clind</t>
+          <t>#liefde</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Celiod</t>
+          <t>Liefde</t>
         </is>
       </c>
       <c r="D224" t="inlineStr"/>
@@ -5908,17 +5384,17 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>#koning</t>
+          <t>#dianira</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Kroning</t>
+          <t>DIANIRA</t>
         </is>
       </c>
       <c r="D225" t="inlineStr"/>
@@ -5930,17 +5406,17 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>#rosil</t>
+          <t>#coridon</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Rosan</t>
+          <t>Coridon</t>
         </is>
       </c>
       <c r="D226" t="inlineStr"/>
@@ -5952,17 +5428,17 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>#ergunt</t>
+          <t>#cassan</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Ergun</t>
+          <t>Cassan</t>
         </is>
       </c>
       <c r="D227" t="inlineStr"/>
@@ -5974,17 +5450,17 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>#alph</t>
+          <t>#ergunt</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Ceph</t>
+          <t>Ergunt</t>
         </is>
       </c>
       <c r="D228" t="inlineStr"/>
@@ -5996,17 +5472,17 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>#ere</t>
+          <t>#wraek,</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Oro</t>
+          <t>Wraek,</t>
         </is>
       </c>
       <c r="D229" t="inlineStr"/>
@@ -6018,17 +5494,17 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>#celion</t>
+          <t>#cor</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Celio</t>
+          <t>Cor</t>
         </is>
       </c>
       <c r="D230" t="inlineStr"/>
@@ -6040,17 +5516,17 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>#leon</t>
+          <t>#arg</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Oron</t>
+          <t>Arg</t>
         </is>
       </c>
       <c r="D231" t="inlineStr"/>
@@ -6062,17 +5538,17 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>#raedsh</t>
+          <t>#philan</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Raetsh</t>
+          <t>Philan</t>
         </is>
       </c>
       <c r="D232" t="inlineStr"/>
@@ -6084,17 +5560,17 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>#cephise</t>
+          <t>#coridon</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Cephis</t>
+          <t>CORIDON</t>
         </is>
       </c>
       <c r="D233" t="inlineStr"/>
@@ -6106,17 +5582,17 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>#stemme</t>
+          <t>#hoveling</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Stem</t>
+          <t>HOVELING</t>
         </is>
       </c>
       <c r="D234" t="inlineStr"/>
@@ -6128,17 +5604,17 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>#rosani</t>
+          <t>#apollo</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Rozani</t>
+          <t>Apollo</t>
         </is>
       </c>
       <c r="D235" t="inlineStr"/>
@@ -6150,17 +5626,17 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>#rosil</t>
+          <t>#cecilia</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Rosili</t>
+          <t>Cecilia</t>
         </is>
       </c>
       <c r="D236" t="inlineStr"/>
@@ -6172,17 +5648,17 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>#rosiljon</t>
+          <t>#cantisa</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Rosilion</t>
+          <t>Cantisa</t>
         </is>
       </c>
       <c r="D237" t="inlineStr"/>
@@ -6194,17 +5670,17 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>#verance</t>
+          <t>#cephise</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Veran</t>
+          <t>Cephise</t>
         </is>
       </c>
       <c r="D238" t="inlineStr"/>
@@ -6216,17 +5692,17 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>#koning</t>
+          <t>#musen</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Coning</t>
+          <t>Musen</t>
         </is>
       </c>
       <c r="D239" t="inlineStr"/>
@@ -6238,17 +5714,17 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>#leon</t>
+          <t>#hertoog</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Con</t>
+          <t>Hertoog</t>
         </is>
       </c>
       <c r="D240" t="inlineStr"/>
@@ -6260,17 +5736,17 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>#verance</t>
+          <t>#raetsh</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Verance,</t>
+          <t>Raetsh</t>
         </is>
       </c>
       <c r="D241" t="inlineStr"/>
@@ -6282,17 +5758,17 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>#ama</t>
+          <t>#laur</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Arg</t>
+          <t>Laur</t>
         </is>
       </c>
       <c r="D242" t="inlineStr"/>
@@ -6304,17 +5780,17 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>#argire</t>
+          <t>#flo</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Argeri</t>
+          <t>Flo</t>
         </is>
       </c>
       <c r="D243" t="inlineStr"/>
@@ -6326,17 +5802,17 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>#celion</t>
+          <t>#rodrig</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Celiod,</t>
+          <t>Rodrig</t>
         </is>
       </c>
       <c r="D244" t="inlineStr"/>
@@ -6348,17 +5824,17 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>#tyt,</t>
+          <t>#ran</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Tyt</t>
+          <t>Ran</t>
         </is>
       </c>
       <c r="D245" t="inlineStr"/>
@@ -6370,17 +5846,17 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>#herder</t>
+          <t>#pieman</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Herderi</t>
+          <t>Pieman</t>
         </is>
       </c>
       <c r="D246" t="inlineStr"/>
@@ -6392,17 +5868,17 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>https://www.dbnl.org/titels/titel.php?id=krul001past02</t>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>#flo</t>
+          <t>#cel</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Flori</t>
+          <t>Cel</t>
         </is>
       </c>
       <c r="D247" t="inlineStr"/>
@@ -6411,6 +5887,28 @@
       <c r="G247" t="inlineStr"/>
       <c r="H247" t="inlineStr"/>
     </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>https://www.dbnl.org/titels/titel.php?id=krul001ster01</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>#constan</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Constan</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr"/>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="inlineStr"/>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/playlist_per_work/krul001pamp02.xlsx
+++ b/playlist_per_work/krul001pamp02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H248"/>
+  <dimension ref="A1:I248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,30 +446,35 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>new_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>speaker_variant</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>is_prefered</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>is_new</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>is_error</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>gender (Male/Female/Unknown/Other)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>comments</t>
         </is>
@@ -483,19 +488,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#leon</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Leon</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>#binnen,</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Binnen,</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -505,19 +511,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>#celesti</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Celesti</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>#raniclis-zingt</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>RANICLIS ZINGT</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -527,19 +534,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>#alph</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Alph</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>#wraek,</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Wraek,</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -549,19 +557,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>#wie-lichtelijck-geloofd-word-lichtelijk-bedrogen</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Wie lichtelijck geloofd word lichtelijk bedrogen</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>#thirsus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Thirsus</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -571,19 +580,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>#elige-kruyden,-tierige-boomen,</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Elige kruyden, tierige boomen,</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>#piman</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Piman</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -593,19 +603,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>#kol</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Kol</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>#ranic</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Ranic</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -615,19 +626,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>#marg</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Marg</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>#silvester</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Silvester</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -637,19 +649,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>#koning</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>KONING</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>#coridon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Coridon</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -659,19 +672,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>#rog</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Rog</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>#eliz</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Eliz</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -681,19 +695,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>#iulian</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Iulian</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>#august</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>August</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -703,19 +718,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>#cleand</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Cleand</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>#philander</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>PHILANDER</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -725,19 +741,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>#dian</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Dian</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>#pieman</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Pieman</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -747,19 +764,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>#stem</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Stem</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>#rozemond</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ROZEMOND</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -769,19 +787,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>#elizab</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Elizab</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>#hoveling</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>HOVELING</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -791,19 +810,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>#clau</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Clau</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>#alphons</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Alphons</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -813,19 +833,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>#dianir</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Dianir</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>#cupido</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Cupido</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -835,19 +856,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>#mercu</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Mercu</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>#clor</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Clor</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -857,19 +879,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>#cupido</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Cupido</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>#nydig</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Nydig</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -879,19 +902,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>#scherp</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Scherp</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>#kroning</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Kroning</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -901,19 +925,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>#ranic</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Ranic</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>#cassan</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Cassan</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -923,19 +948,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>#dianier</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Dianier</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>#rosil</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Rosil</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -945,19 +971,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>#faust</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Faust</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>#calist</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Calist</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -967,19 +994,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>#oro</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Oro</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>#koning</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>KONING</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -989,19 +1017,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>#oude-v</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Oude-v</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>#florentina</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>FLORENTINA</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1011,19 +1040,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>#calista,</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Calista,</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>#koning</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Koning</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1033,19 +1063,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>#toveres</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Toveres</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>#rosilion</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Rosilion</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1055,19 +1086,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>#celestijn</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Celestijn</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>#celesti</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Celesti</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1077,19 +1109,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>#tyt</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Tyt</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>#corid</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Corid</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1099,19 +1132,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>#wees-ij</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Wees-ij</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>#helena</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Helena</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1121,19 +1155,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>#rijm</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Rijm</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>#schoon-herderinne,</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Schoon Herderinne,</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1143,19 +1178,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>#diana</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Diana</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>#bellinde</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Bellinde</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1165,19 +1201,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>#thirs</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Thirs</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>#tyt,</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Tyt,</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1187,19 +1224,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>#trouw</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Trouw</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>#flori</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Flori</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1209,19 +1247,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>#flori</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Flori</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>#laura</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Laura</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1231,19 +1270,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>#cant</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Cant</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>#helen</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Helen</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1253,19 +1293,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>#tov</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Tov</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>#cec</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Cec</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1275,19 +1316,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>#pallas</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Pallas</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>#diana</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Diana</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1297,19 +1339,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>#helena</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Helena</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>#marg</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Marg</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1319,19 +1362,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>#grucel</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Grucel</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>#amasis</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Amasis</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1341,19 +1385,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>#herderi</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Herderi</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>#kon</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Kon</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1363,19 +1408,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>#florentina</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>FLORENTINA</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>#hele</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Hele</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1385,19 +1431,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>#apol</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Apol</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>#piman,</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Piman,</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1407,19 +1454,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>#bell</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Bell</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>#oud-m</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Oud-m</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1429,19 +1477,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>#gru</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Gru</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>#alph</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Alph</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1451,19 +1500,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>#hert</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Hert</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+          <t>#dianir</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Dianir</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1473,19 +1523,20 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>#buyg,-zuye-winden,</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Buyg, zuye winden,</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+          <t>#floriaen</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>FLORIAEN</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1495,19 +1546,20 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>#lerind</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Lerind</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>#wees-ij</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Wees-ij</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1517,19 +1569,20 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>#helena</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>HELENA</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>#rodr</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Rodr</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1539,19 +1592,20 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>#claud</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Claud</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>#elizab</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Elizab</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1561,19 +1615,20 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>#amar</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Amar</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>#arg</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Arg</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1583,19 +1638,20 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>#rosilion</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Rosilion</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>#cypria</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Cypria</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1605,19 +1661,20 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>#rhodri</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Rhodri</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>#amarillis</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>AMARILLIS</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1627,19 +1684,20 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>#amarillis</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>AMARILLIS</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>#tover</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Tover</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1649,19 +1707,20 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>#iul</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Iul</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+          <t>#philida-zingt</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>PHILIDA ZINGT</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1674,16 +1733,17 @@
           <t>#ach!-ach!-ik-krijg-mijn-wil</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>Ach! ach! ik krijg mijn wil</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1693,19 +1753,20 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>#gabrin</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Gabrin</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+          <t>#cephise</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Cephise</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1715,19 +1776,20 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>#rosani</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Rosani</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>#raniclis</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>RANICLIS</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1737,19 +1799,20 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>#ferd</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Ferd</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+          <t>#vvaer-zal-ik-vinden</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>VVaer zal ik vinden</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1759,19 +1822,20 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>#allerd</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Allerd</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+          <t>#schild</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Schild</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1781,19 +1845,20 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>#rosil</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Rosil</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+          <t>#rodrig</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Rodrig</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1803,19 +1868,20 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>#roz</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Roz</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>#heydin</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Heydin</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1825,19 +1891,20 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>#nydig</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Nydig</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
+          <t>#florentina</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Florentina</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1847,19 +1914,20 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>#alcip</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>ALCIP</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+          <t>#ariont</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Ariont</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1869,19 +1937,20 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>#rethor</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Rethor</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+          <t>#celestijn</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Celestijn</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1891,19 +1960,20 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>#philida-zingt</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>PHILIDA ZINGT</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>#lerind</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Lerind</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1913,19 +1983,20 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>#cec</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Cec</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
+          <t>#elisab</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Elisab</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1935,19 +2006,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>#galat</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Galat</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
+          <t>#cup</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Cup</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1957,19 +2029,20 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>#celestia</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Celestia</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
+          <t>#rethor</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Rethor</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1979,19 +2052,20 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>#stemme</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Stemme</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+          <t>#dia</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Dia</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2001,19 +2075,20 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>#verance,</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Verance,</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
+          <t>#kol</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Kol</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2023,19 +2098,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>#wees-j</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Wees-j</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
+          <t>#iul</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Iul</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2045,19 +2121,20 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>#marc</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Marc</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
+          <t>#diena</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Diena</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2067,19 +2144,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>#cass</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Cass</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
+          <t>#stem</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Stem</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2089,19 +2167,20 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>#diana</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>DIANA</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
+          <t>#wraek</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Wraek</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2111,19 +2190,20 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>#clindor</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Clindor</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
+          <t>#juliana</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Juliana</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2133,19 +2213,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>#faustin</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Faustin</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
+          <t>#rosili</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Rosili</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2155,19 +2236,20 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>#oude-m</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Oude-m</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
+          <t>#den-hoveling-beklaegd-zich-zeer-overden-tijd,-die-hy-in-'t-hof-heeft-door-gebracht</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Den Hoveling beklaegd zich zeer overden tijd, die hy in 't Hof heeft door gebracht</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2177,19 +2259,20 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>#eremijt</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Eremijt</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
+          <t>#argire</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Argire</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2199,19 +2282,20 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>#canti</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Canti</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
+          <t>#gru</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Gru</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2221,19 +2305,20 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>#cecil</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Cecil</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
+          <t>#ergun</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Ergun</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2243,19 +2328,20 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>#konin</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Konin</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
+          <t>#theod</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Theod</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2265,19 +2351,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>#schild</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Schild</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
+          <t>#eremijt</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Eremijt</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2287,19 +2374,20 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>#ceph</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Ceph</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
+          <t>#apollo</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Apollo</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2309,19 +2397,20 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>#karel</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Karel</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
+          <t>#kar</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Kar</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2331,19 +2420,20 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>#piman</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Piman</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
+          <t>#ferdin</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Ferdin</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2353,19 +2443,20 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>#raedsh</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Raedsh</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
+          <t>#cantisa</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Cantisa</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2375,19 +2466,20 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>#theodoor</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>THEODOOR</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
+          <t>#cap</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Cap</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2397,19 +2489,20 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>#rozem</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Rozem</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
+          <t>#const</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Const</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2419,19 +2512,20 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>#florent,</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Florent,</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
+          <t>#celestia</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Celestia</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2441,19 +2535,20 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>#theodor</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Theodor</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
+          <t>#roz</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Roz</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2463,19 +2558,20 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>#vvaer-zal-ik-vinden</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>VVaer zal ik vinden</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
+          <t>#gustav</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Gustav</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2485,19 +2581,20 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>#tover</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Tover</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+          <t>#con</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Con</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2507,19 +2604,20 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>#wraek</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Wraek</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
+          <t>#clindor</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Clindor</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2529,19 +2627,20 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>#ere</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Ere</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
+          <t>#musen</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Musen</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2551,19 +2650,20 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>#rosili</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Rosili</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
+          <t>#dien</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Dien</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2573,19 +2673,20 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>#hele</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Hele</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
+          <t>#theodor</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Theodor</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2595,19 +2696,20 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>#coning</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Coning</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
+          <t>#ergunt</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Ergunt</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2617,19 +2719,20 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>#corid</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Corid</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
+          <t>#oron</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Oron</t>
+        </is>
+      </c>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2639,19 +2742,20 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>#veran</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Veran</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
+          <t>#leon</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Leon</t>
+        </is>
+      </c>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2661,19 +2765,20 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>#tyt,</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Tyt,</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
+          <t>#stemme</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Stemme</t>
+        </is>
+      </c>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2683,19 +2788,20 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>#lau</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>lau</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
+          <t>#cloris</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Cloris</t>
+        </is>
+      </c>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2705,19 +2811,20 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>#raniclis-zingt</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>RANICLIS ZINGT</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
+          <t>#calista</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Calista</t>
+        </is>
+      </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2727,19 +2834,20 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>#phil</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Phil</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
+          <t>#canti</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Canti</t>
+        </is>
+      </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2749,19 +2857,20 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>#iuli</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Iuli</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
+          <t>#coridon</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>CORIDON</t>
+        </is>
+      </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2771,19 +2880,20 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>#heracl</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Heracl</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
+          <t>#rijm</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Rijm</t>
+        </is>
+      </c>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2793,19 +2903,20 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>#celiod</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Celiod</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
+          <t>#luci</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Luci</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2815,19 +2926,20 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>#aller</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Aller</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
+          <t>#marcel</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Marcel</t>
+        </is>
+      </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2837,19 +2949,20 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>#lerinde</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Lerinde</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
+          <t>#amar</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Amar</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2859,19 +2972,20 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>#den-hoveling-beklaegd-zich-zeer-overden-tijd,-die-hy-in-'t-hof-heeft-door-gebracht</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Den Hoveling beklaegd zich zeer overden tijd, die hy in 't Hof heeft door gebracht</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
+          <t>#rozani</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Rozani</t>
+        </is>
+      </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2881,19 +2995,20 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>#philand</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Philand</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
+          <t>#d</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2903,19 +3018,20 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>#verance</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Verance</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
+          <t>#tyt</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Tyt</t>
+        </is>
+      </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2925,19 +3041,20 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>#rosan</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Rosan</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
+          <t>#rijmer</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Rijmer</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2947,19 +3064,20 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>#philander</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>PHILANDER</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
+          <t>#philid</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Philid</t>
+        </is>
+      </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2969,19 +3087,20 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>#d</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
+          <t>#music</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2991,19 +3110,20 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>#kon</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Kon</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
+          <t>#philida</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Philida</t>
+        </is>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3013,19 +3133,20 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>#cleant</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Cleant</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr"/>
+          <t>#lucia</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Lucia</t>
+        </is>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3035,19 +3156,20 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>#thirsus</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Thirsus</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr"/>
+          <t>#florent</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Florent</t>
+        </is>
+      </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3057,19 +3179,20 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>#rozani</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Rozani</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
+          <t>#celio</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Celio</t>
+        </is>
+      </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3079,19 +3202,20 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>#laura</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Laura</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
+          <t>#musyk</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Musyk</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3101,19 +3225,20 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>#cap</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Cap</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
+          <t>#lerinde</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Lerinde</t>
+        </is>
+      </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3123,19 +3248,20 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>#schoon-herderinne,</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Schoon Herderinne,</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr"/>
+          <t>#amas</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Amas</t>
+        </is>
+      </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3145,19 +3271,20 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>#clind</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Clind</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr"/>
+          <t>#phil</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Phil</t>
+        </is>
+      </c>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3167,19 +3294,20 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>#juliana</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Juliana</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
+          <t>#hel</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Hel</t>
+        </is>
+      </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3189,19 +3317,20 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>#rech</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Rech</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr"/>
+          <t>#grucel</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Grucel</t>
+        </is>
+      </c>
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3211,19 +3340,20 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>#wees-ji</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Wees-ji</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr"/>
+          <t>#thirs</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Thirs</t>
+        </is>
+      </c>
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3233,19 +3363,20 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>#gabr</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Gabr</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr"/>
+          <t>#rhodri</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Rhodri</t>
+        </is>
+      </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3255,19 +3386,20 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>#philid</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Philid</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
+          <t>#pagie</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Pagie</t>
+        </is>
+      </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3277,19 +3409,20 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>#gustav</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Gustav</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr"/>
+          <t>#cleant</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Cleant</t>
+        </is>
+      </c>
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3299,19 +3432,20 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>#rozemond</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>ROZEMOND</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr"/>
+          <t>#claudi</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Claudi</t>
+        </is>
+      </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3321,19 +3455,20 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>#pluto</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Pluto</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
+          <t>#elige-kruyden,-tierige-boomen,</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Elige kruyden, tierige boomen,</t>
+        </is>
+      </c>
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3346,16 +3481,17 @@
           <t>#alcip</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
         <is>
           <t>Alcip</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3365,19 +3501,20 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>#oron</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Oron</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
+          <t>#dianira</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>DIANIRA</t>
+        </is>
+      </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3387,19 +3524,20 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>#lau</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Lau</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
+          <t>#veran</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Veran</t>
+        </is>
+      </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3409,19 +3547,20 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>#rodr</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Rodr</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
+          <t>#wees-ji</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Wees-ji</t>
+        </is>
+      </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3431,19 +3570,20 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>#oud-m</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Oud-m</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
+          <t>#florent,</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Florent,</t>
+        </is>
+      </c>
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3453,19 +3593,20 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>#heydin</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Heydin</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
+          <t>#tov</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Tov</t>
+        </is>
+      </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3475,19 +3616,20 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>#rozem,</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Rozem,</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
+          <t>#apolon</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Apolon</t>
+        </is>
+      </c>
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3497,19 +3639,20 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>#kar</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Kar</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
+          <t>#celiod,</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Celiod,</t>
+        </is>
+      </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3519,19 +3662,20 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>#waer-schuyld-gy-u,-mijn-waerde-herder?</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Waer schuyld gy u, mijn waerde Herder?</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
+          <t>#helena</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>HELENA</t>
+        </is>
+      </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3541,19 +3685,20 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>#ergun</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Ergun</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr"/>
+          <t>#scherp</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Scherp</t>
+        </is>
+      </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3563,19 +3708,20 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>#amaril</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Amaril</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr"/>
+          <t>#herderi</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Herderi</t>
+        </is>
+      </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3585,19 +3731,20 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>#castern</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Castern</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr"/>
+          <t>#ran</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Ran</t>
+        </is>
+      </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3607,19 +3754,20 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>#raniclis</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>RANICLIS</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr"/>
+          <t>#philan</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Philan</t>
+        </is>
+      </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3629,19 +3777,20 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>#rosiljon</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Rosiljon</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr"/>
+          <t>#amaril</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Amaril</t>
+        </is>
+      </c>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3654,16 +3803,17 @@
           <t>#cordon</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
         <is>
           <t>Cordon</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3673,19 +3823,20 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>#elizabeth</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>ELIZABETH</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr"/>
+          <t>#liefdbl</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Liefdbl</t>
+        </is>
+      </c>
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3695,19 +3846,20 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>#hel</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Hel</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr"/>
+          <t>#philida</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>PHILIDA</t>
+        </is>
+      </c>
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3717,19 +3869,20 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>#cup</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Cup</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr"/>
+          <t>#faustin</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Faustin</t>
+        </is>
+      </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3739,19 +3892,20 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>#diena</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Diena</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr"/>
+          <t>#flor</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Flor</t>
+        </is>
+      </c>
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3761,19 +3915,20 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>#celio</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Celio</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr"/>
+          <t>#emmer</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Emmer</t>
+        </is>
+      </c>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3783,19 +3938,20 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>#floria</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Floria</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr"/>
+          <t>#verance,</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Verance,</t>
+        </is>
+      </c>
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3805,19 +3961,20 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>#liefdbl</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Liefdbl</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr"/>
+          <t>#rozem,</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Rozem,</t>
+        </is>
+      </c>
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3827,19 +3984,20 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>#amasis</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Amasis</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr"/>
+          <t>#cantis</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Cantis</t>
+        </is>
+      </c>
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -3849,19 +4007,20 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>#cyp</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Cyp</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr"/>
+          <t>#diana</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>DIANA</t>
+        </is>
+      </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -3871,19 +4030,20 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>#calista</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Calista</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr"/>
+          <t>#karel</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Karel</t>
+        </is>
+      </c>
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -3893,19 +4053,20 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>#argeri</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Argeri</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr"/>
+          <t>#hertoog</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Hertoog</t>
+        </is>
+      </c>
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -3915,19 +4076,20 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>#oronte</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Oronte</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr"/>
+          <t>#recht</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Recht</t>
+        </is>
+      </c>
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -3937,19 +4099,20 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>#con</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Con</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr"/>
+          <t>#ler</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Ler</t>
+        </is>
+      </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -3959,19 +4122,20 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>#clor</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Clor</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr"/>
+          <t>#lau</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Lau</t>
+        </is>
+      </c>
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3981,19 +4145,20 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>#binnen,</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Binnen,</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr"/>
+          <t>#pimon</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Pimon</t>
+        </is>
+      </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4003,19 +4168,20 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>#piman,</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Piman,</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr"/>
+          <t>#calista,</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Calista,</t>
+        </is>
+      </c>
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4025,19 +4191,20 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>#ama</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Ama</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr"/>
+          <t>#celestina</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>CELESTINA</t>
+        </is>
+      </c>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4047,19 +4214,20 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>#silvester</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Silvester</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr"/>
+          <t>#alcip</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>ALCIP</t>
+        </is>
+      </c>
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4069,19 +4237,20 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>#marcel</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Marcel</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr"/>
+          <t>#cassand</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Cassand</t>
+        </is>
+      </c>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4091,19 +4260,20 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>#argire</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Argire</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr"/>
+          <t>#elizabeth</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>ELIZABETH</t>
+        </is>
+      </c>
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4113,19 +4283,20 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>#eliz</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Eliz</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr"/>
+          <t>#floria</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Floria</t>
+        </is>
+      </c>
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4135,19 +4306,20 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>#lucia</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Lucia</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr"/>
+          <t>#allerd</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Allerd</t>
+        </is>
+      </c>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4157,19 +4329,20 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>#recht</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Recht</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr"/>
+          <t>#rogier</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Rogier</t>
+        </is>
+      </c>
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -4179,19 +4352,20 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>#musyk</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Musyk</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr"/>
+          <t>#raetsh</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Raetsh</t>
+        </is>
+      </c>
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -4201,19 +4375,20 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>#floriaen</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>FLORIAEN</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr"/>
+          <t>#celiod</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Celiod</t>
+        </is>
+      </c>
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4226,16 +4401,17 @@
           <t>#cephis</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr">
         <is>
           <t>Cephis</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4245,19 +4421,20 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>#kroning</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Kroning</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr"/>
+          <t>#flore</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4267,19 +4444,20 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>#cecilia</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>CECILIA</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr"/>
+          <t>#ama</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Ama</t>
+        </is>
+      </c>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4289,19 +4467,20 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>#herder</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Herder</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr"/>
+          <t>#hert</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Hert</t>
+        </is>
+      </c>
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -4311,19 +4490,20 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>#philida</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Philida</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr"/>
+          <t>#musica</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Musica</t>
+        </is>
+      </c>
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -4333,19 +4513,20 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>#pimon</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Pimon</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr"/>
+          <t>#cel</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Cel</t>
+        </is>
+      </c>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -4355,19 +4536,20 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>#philida</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>PHILIDA</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr"/>
+          <t>#rech</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Rech</t>
+        </is>
+      </c>
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -4377,19 +4559,20 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>#amas</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Amas</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr"/>
+          <t>#waer-schuyld-gy-u,-mijn-waerde-herder?</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Waer schuyld gy u, mijn waerde Herder?</t>
+        </is>
+      </c>
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -4399,19 +4582,20 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>#cloris</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Cloris</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr"/>
+          <t>#pallas</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Pallas</t>
+        </is>
+      </c>
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -4421,19 +4605,20 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>#celestina</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>CELESTINA</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr"/>
+          <t>#cant</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Cant</t>
+        </is>
+      </c>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -4443,19 +4628,20 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>#rod</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Rod</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr"/>
+          <t>#wie-lichtelijck-geloofd-word-lichtelijk-bedrogen</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Wie lichtelijck geloofd word lichtelijk bedrogen</t>
+        </is>
+      </c>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -4465,19 +4651,20 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>#helen</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Helen</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr"/>
+          <t>#ceph</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Ceph</t>
+        </is>
+      </c>
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -4487,19 +4674,20 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>#rogier,</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Rogier,</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr"/>
+          <t>#cecilia</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Cecilia</t>
+        </is>
+      </c>
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -4509,19 +4697,20 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>#luci</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Luci</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr"/>
+          <t>#rozem</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Rozem</t>
+        </is>
+      </c>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -4531,19 +4720,20 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>#koning</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Koning</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr"/>
+          <t>#theodoor</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>THEODOOR</t>
+        </is>
+      </c>
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -4553,19 +4743,20 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>#luc</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Luc</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr"/>
+          <t>#cyp</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Cyp</t>
+        </is>
+      </c>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -4575,19 +4766,20 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>#musica</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Musica</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr"/>
+          <t>#cecil</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Cecil</t>
+        </is>
+      </c>
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -4597,19 +4789,20 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>#const</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Const</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr"/>
+          <t>#trouw</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Trouw</t>
+        </is>
+      </c>
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -4619,19 +4812,20 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>#florent</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Florent</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr"/>
+          <t>#on-van-mijn-zinne</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>On van mijn zinne</t>
+        </is>
+      </c>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -4641,19 +4835,20 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>#dien</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Dien</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr"/>
+          <t>#constan</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Constan</t>
+        </is>
+      </c>
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -4663,19 +4858,20 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>#ranic,</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>Ranic,</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr"/>
+          <t>#dianier</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Dianier</t>
+        </is>
+      </c>
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -4685,19 +4881,20 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>#rijmer</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Rijmer</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr"/>
+          <t>#ranic,</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Ranic,</t>
+        </is>
+      </c>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -4707,19 +4904,20 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>#bellinde</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Bellinde</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr"/>
+          <t>#argeri</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Argeri</t>
+        </is>
+      </c>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -4729,19 +4927,20 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>#claudi</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>Claudi</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr"/>
+          <t>#luc</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Luc</t>
+        </is>
+      </c>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -4751,19 +4950,20 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>#hier-by-de-linden,</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Hier by de linden,</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr"/>
+          <t>#laur</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Laur</t>
+        </is>
+      </c>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -4773,19 +4973,20 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>#elisab</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Elisab</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr"/>
+          <t>#oronte</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Oronte</t>
+        </is>
+      </c>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -4795,19 +4996,20 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>#august</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr"/>
+          <t>#gabr</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Gabr</t>
+        </is>
+      </c>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -4817,19 +5019,20 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>#emmer</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Emmer</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr"/>
+          <t>#oude-v</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Oude-v</t>
+        </is>
+      </c>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -4839,19 +5042,20 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>#on-van-mijn-zinne</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>On van mijn zinne</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr"/>
+          <t>#rogier,</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Rogier,</t>
+        </is>
+      </c>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -4861,19 +5065,20 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>#cypria</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>Cypria</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr"/>
+          <t>#rosani</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Rosani</t>
+        </is>
+      </c>
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -4883,19 +5088,20 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>#iuliana</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>Iuliana</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr"/>
+          <t>#rog</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Rog</t>
+        </is>
+      </c>
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr"/>
       <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -4905,19 +5111,20 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>#celiod,</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>Celiod,</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr"/>
+          <t>#verance</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Verance</t>
+        </is>
+      </c>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -4927,19 +5134,20 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>#ferdin</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Ferdin</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr"/>
+          <t>#oude-m</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Oude-m</t>
+        </is>
+      </c>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr"/>
       <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -4949,19 +5157,20 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>#ler</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Ler</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr"/>
+          <t>#cecilia</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>CECILIA</t>
+        </is>
+      </c>
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -4971,19 +5180,20 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>#flor</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>Flor</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr"/>
+          <t>#flo</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Flo</t>
+        </is>
+      </c>
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -4993,19 +5203,20 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>#cassand</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>Cassand</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr"/>
+          <t>#iuli</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Iuli</t>
+        </is>
+      </c>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -5015,19 +5226,20 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>#florentina</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>Florentina</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr"/>
+          <t>#cleand</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Cleand</t>
+        </is>
+      </c>
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr"/>
       <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -5037,19 +5249,20 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>#music</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Music</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr"/>
+          <t>#clau</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Clau</t>
+        </is>
+      </c>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -5059,19 +5272,20 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>#theod</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>Theod</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr"/>
+          <t>#galat</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Galat</t>
+        </is>
+      </c>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -5081,19 +5295,20 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>#calist</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>Calist</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr"/>
+          <t>#bell</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Bell</t>
+        </is>
+      </c>
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -5103,19 +5318,20 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>#ariont</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>Ariont</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr"/>
+          <t>#cass</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Cass</t>
+        </is>
+      </c>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -5125,19 +5341,20 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>#alphons</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>Alphons</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr"/>
+          <t>#coning</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Coning</t>
+        </is>
+      </c>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
       <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -5147,19 +5364,20 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>#ros</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>Ros</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr"/>
+          <t>#celion</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Celion</t>
+        </is>
+      </c>
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -5169,19 +5387,20 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>#elizabet</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>ELIZABET</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr"/>
+          <t>#konin</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Konin</t>
+        </is>
+      </c>
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -5191,19 +5410,20 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>#celion</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>Celion</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr"/>
+          <t>#gabrin</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Gabrin</t>
+        </is>
+      </c>
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr"/>
       <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -5213,19 +5433,20 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>#apolon</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>Apolon</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr"/>
+          <t>#elizabet</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>ELIZABET</t>
+        </is>
+      </c>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -5235,19 +5456,20 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>#cantis</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>Cantis</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr"/>
+          <t>#mercu</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Mercu</t>
+        </is>
+      </c>
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr"/>
       <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -5257,19 +5479,20 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>#hovel</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>Hovel</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr"/>
+          <t>#buyg,-zuye-winden,</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Buyg, zuye winden,</t>
+        </is>
+      </c>
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr"/>
       <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -5279,19 +5502,20 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>#pagie</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>Pagie</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr"/>
+          <t>#rod</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Rod</t>
+        </is>
+      </c>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -5301,19 +5525,20 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>#rogier</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>Rogier</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr"/>
+          <t>#wees-j</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Wees-j</t>
+        </is>
+      </c>
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr"/>
       <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -5323,19 +5548,20 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>#flore</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Flore</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr"/>
+          <t>#ere</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Ere</t>
+        </is>
+      </c>
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -5345,19 +5571,20 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>#dia</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>Dia</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr"/>
+          <t>#ros</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Ros</t>
+        </is>
+      </c>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="inlineStr"/>
       <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -5367,19 +5594,20 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>#liefde</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>Liefde</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr"/>
+          <t>#pluto</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Pluto</t>
+        </is>
+      </c>
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -5389,19 +5617,20 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>#dianira</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>DIANIRA</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr"/>
+          <t>#ferd</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Ferd</t>
+        </is>
+      </c>
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -5411,19 +5640,20 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>#coridon</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>Coridon</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr"/>
+          <t>#castern</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Castern</t>
+        </is>
+      </c>
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -5433,19 +5663,20 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>#cassan</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>Cassan</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr"/>
+          <t>#hovel</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Hovel</t>
+        </is>
+      </c>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -5455,19 +5686,20 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>#ergunt</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>Ergunt</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr"/>
+          <t>#lau</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>lau</t>
+        </is>
+      </c>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -5477,19 +5709,20 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>#wraek,</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>Wraek,</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr"/>
+          <t>#rosan</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Rosan</t>
+        </is>
+      </c>
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr"/>
       <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -5499,19 +5732,20 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>#cor</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>Cor</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr"/>
+          <t>#faust</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Faust</t>
+        </is>
+      </c>
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr"/>
       <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -5521,19 +5755,20 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>#arg</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>Arg</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr"/>
+          <t>#toveres</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Toveres</t>
+        </is>
+      </c>
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="inlineStr"/>
       <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -5543,19 +5778,20 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>#philan</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>Philan</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr"/>
+          <t>#oro</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Oro</t>
+        </is>
+      </c>
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="inlineStr"/>
       <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -5565,19 +5801,20 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>#coridon</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>CORIDON</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr"/>
+          <t>#apol</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Apol</t>
+        </is>
+      </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -5587,19 +5824,20 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>#hoveling</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>HOVELING</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr"/>
+          <t>#dian</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Dian</t>
+        </is>
+      </c>
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="inlineStr"/>
       <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -5609,19 +5847,20 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>#apollo</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>Apollo</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr"/>
+          <t>#claud</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Claud</t>
+        </is>
+      </c>
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="inlineStr"/>
       <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -5631,19 +5870,20 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>#cecilia</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Cecilia</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr"/>
+          <t>#aller</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Aller</t>
+        </is>
+      </c>
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="inlineStr"/>
       <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -5653,19 +5893,20 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>#cantisa</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Cantisa</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr"/>
+          <t>#rosiljon</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Rosiljon</t>
+        </is>
+      </c>
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -5675,19 +5916,20 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>#cephise</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>Cephise</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr"/>
+          <t>#clind</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr"/>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Clind</t>
+        </is>
+      </c>
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="inlineStr"/>
       <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -5697,19 +5939,20 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>#musen</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>Musen</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr"/>
+          <t>#hier-by-de-linden,</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr"/>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Hier by de linden,</t>
+        </is>
+      </c>
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr"/>
       <c r="G239" t="inlineStr"/>
       <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -5719,19 +5962,20 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>#hertoog</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>Hertoog</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr"/>
+          <t>#iulian</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr"/>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Iulian</t>
+        </is>
+      </c>
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr"/>
       <c r="G240" t="inlineStr"/>
       <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -5741,19 +5985,20 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>#raetsh</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>Raetsh</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr"/>
+          <t>#herder</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr"/>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Herder</t>
+        </is>
+      </c>
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="inlineStr"/>
       <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -5763,19 +6008,20 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>#laur</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>Laur</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr"/>
+          <t>#philand</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Philand</t>
+        </is>
+      </c>
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="inlineStr"/>
       <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -5785,19 +6031,20 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>#flo</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>Flo</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr"/>
+          <t>#marc</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Marc</t>
+        </is>
+      </c>
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="inlineStr"/>
       <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -5807,19 +6054,20 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>#rodrig</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>Rodrig</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr"/>
+          <t>#liefde</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Liefde</t>
+        </is>
+      </c>
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="inlineStr"/>
       <c r="G244" t="inlineStr"/>
       <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -5829,19 +6077,20 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>#ran</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>Ran</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr"/>
+          <t>#heracl</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Heracl</t>
+        </is>
+      </c>
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="inlineStr"/>
       <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -5851,19 +6100,20 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>#pieman</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>Pieman</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr"/>
+          <t>#iuliana</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr"/>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Iuliana</t>
+        </is>
+      </c>
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr"/>
       <c r="G246" t="inlineStr"/>
       <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -5873,19 +6123,20 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>#cel</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>Cel</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr"/>
+          <t>#raedsh</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr"/>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Raedsh</t>
+        </is>
+      </c>
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="inlineStr"/>
       <c r="G247" t="inlineStr"/>
       <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -5895,19 +6146,20 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>#constan</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>Constan</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr"/>
+          <t>#cor</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr"/>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Cor</t>
+        </is>
+      </c>
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="inlineStr"/>
       <c r="G248" t="inlineStr"/>
       <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
